--- a/backend/common/primary_data/荃湾区升学数据.xlsx
+++ b/backend/common/primary_data/荃湾区升学数据.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="214">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -1000,9 +1000,6 @@
   </si>
   <si>
     <t>香港道教聯合會圓玄學院第一中學</t>
-  </si>
-  <si>
-    <t>2021-2025</t>
   </si>
   <si>
     <t>https://www.emm.edu.hk/_files/ugd/9834ea_7b8ed3abc96c4678bf91c63b33ca90c9.pdf</t>
@@ -3018,8 +3015,8 @@
   <sheetPr codeName="靈光小學"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -3051,8 +3048,8 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>146</v>
+      <c r="B2" s="2">
+        <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
@@ -3061,7 +3058,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>101</v>
@@ -3106,7 +3103,7 @@
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
@@ -3115,7 +3112,7 @@
     <row r="8" ht="17.6" spans="1:6">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
@@ -3124,7 +3121,7 @@
     <row r="9" ht="17.6" spans="1:6">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -3259,7 +3256,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -3268,7 +3265,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -3385,7 +3382,7 @@
     <row r="38" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -3394,7 +3391,7 @@
     <row r="39" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -3461,7 +3458,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2">
         <v>83</v>
@@ -3515,7 +3512,7 @@
     <row r="8" ht="15.2" spans="1:6">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -3587,7 +3584,7 @@
     <row r="16" ht="15.2" spans="1:6">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -3596,7 +3593,7 @@
     <row r="17" ht="15.2" spans="2:4">
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -3605,7 +3602,7 @@
     <row r="18" ht="15.2" spans="2:4">
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -3641,7 +3638,7 @@
     <row r="22" ht="15.2" spans="2:4">
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
@@ -3713,7 +3710,7 @@
     <row r="30" ht="15.2" spans="2:4">
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -3722,7 +3719,7 @@
     <row r="31" ht="16" spans="2:4">
       <c r="B31" s="10"/>
       <c r="C31" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -3789,7 +3786,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3987,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -4011,7 +4008,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -4020,7 +4017,7 @@
     <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -4173,7 +4170,7 @@
     <row r="23" ht="17.6" spans="2:4">
       <c r="B23" s="1"/>
       <c r="C23" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -4182,7 +4179,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -4227,7 +4224,7 @@
     <row r="29" spans="2:4">
       <c r="B29" s="1"/>
       <c r="C29" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -4236,7 +4233,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="1"/>
       <c r="C30" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -4245,7 +4242,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="1"/>
       <c r="C31" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -4263,7 +4260,7 @@
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -4353,7 +4350,7 @@
     <row r="43" ht="17.6" spans="2:4">
       <c r="B43" s="1"/>
       <c r="C43" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -4362,7 +4359,7 @@
     <row r="44" ht="17.6" spans="2:4">
       <c r="B44" s="1"/>
       <c r="C44" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -4371,7 +4368,7 @@
     <row r="45" ht="17.6" spans="2:4">
       <c r="B45" s="5"/>
       <c r="C45" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D45" s="9">
         <v>1</v>
@@ -4607,7 +4604,7 @@
     <row r="71" ht="17.6" spans="2:4">
       <c r="B71" s="1"/>
       <c r="C71" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4634,7 +4631,7 @@
     <row r="74" ht="17.6" spans="2:4">
       <c r="B74" s="1"/>
       <c r="C74" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D74" s="6">
         <v>5</v>
@@ -4661,7 +4658,7 @@
     <row r="77" ht="17.6" spans="2:4">
       <c r="B77" s="1"/>
       <c r="C77" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4697,7 +4694,7 @@
     <row r="81" ht="17.6" spans="2:4">
       <c r="B81" s="1"/>
       <c r="C81" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4706,7 +4703,7 @@
     <row r="82" ht="17.6" spans="2:4">
       <c r="B82" s="1"/>
       <c r="C82" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
@@ -4742,7 +4739,7 @@
     <row r="86" ht="17.6" spans="2:4">
       <c r="B86" s="1"/>
       <c r="C86" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4751,7 +4748,7 @@
     <row r="87" ht="17.6" spans="2:4">
       <c r="B87" s="1"/>
       <c r="C87" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4825,7 +4822,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -4859,14 +4856,14 @@
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4971,7 +4968,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F3">
         <v>135</v>
@@ -4989,7 +4986,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -5106,7 +5103,7 @@
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -5124,7 +5121,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -5133,7 +5130,7 @@
     <row r="21" ht="17.6" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5214,7 +5211,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -5223,7 +5220,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5232,7 +5229,7 @@
     <row r="32" ht="17.6" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -5300,7 +5297,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -5327,7 +5324,7 @@
     <row r="42" ht="17.6" spans="2:6">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -5408,7 +5405,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -5516,7 +5513,7 @@
     <row r="63" ht="17.6" spans="2:4">
       <c r="B63" s="4"/>
       <c r="C63" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
@@ -5525,7 +5522,7 @@
     <row r="64" ht="17.6" spans="2:4">
       <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5588,7 +5585,7 @@
     <row r="71" ht="17.6" spans="2:4">
       <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -5655,7 +5652,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5682,14 +5679,14 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5710,14 +5707,14 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5794,14 +5791,14 @@
     <row r="22" ht="17.6" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
       <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -5822,7 +5819,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -5843,7 +5840,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -5921,17 +5918,17 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5952,7 +5949,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -5980,7 +5977,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -6008,7 +6005,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6065,11 +6062,11 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -6079,7 +6076,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -6141,7 +6138,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6204,7 +6201,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -6264,7 +6261,7 @@
     <row r="9" ht="17.6" spans="1:6">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -6309,7 +6306,7 @@
     <row r="14" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -6336,7 +6333,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6354,7 +6351,7 @@
     <row r="19" ht="17.6" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -6363,7 +6360,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -6408,7 +6405,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6489,7 +6486,7 @@
     <row r="34" ht="17.6" spans="2:4">
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6498,7 +6495,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -7127,7 +7124,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7214,7 +7211,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -7259,7 +7256,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -7448,7 +7445,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -7457,7 +7454,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -7466,7 +7463,7 @@
     <row r="40" ht="17.6" spans="2:4">
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -7475,7 +7472,7 @@
     <row r="41" ht="17.6" spans="2:4">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -7548,7 +7545,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7561,7 +7558,7 @@
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D4" s="3"/>
     </row>

--- a/backend/common/primary_data/荃湾区升学数据.xlsx
+++ b/backend/common/primary_data/荃湾区升学数据.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="215">
   <si>
     <t>是否可统计升中数据</t>
   </si>
@@ -1012,6 +1012,101 @@
   </si>
   <si>
     <t>宣道會鄭榮之中學</t>
+  </si>
+  <si>
+    <r>
+      <t>可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>風</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>學</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>嗇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>園</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体-简"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF262626"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <r>
@@ -3015,8 +3110,8 @@
   <sheetPr codeName="靈光小學"/>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1" outlineLevelCol="5"/>
@@ -3157,7 +3252,7 @@
     <row r="13" spans="1:6">
       <c r="B13" s="4"/>
       <c r="C13" s="2" t="s">
-        <v>72</v>
+        <v>150</v>
       </c>
       <c r="D13" s="3">
         <v>4</v>
@@ -3256,7 +3351,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="4"/>
       <c r="C24" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -3265,7 +3360,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D25" s="3">
         <v>2</v>
@@ -3382,7 +3477,7 @@
     <row r="38" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -3391,7 +3486,7 @@
     <row r="39" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -3458,7 +3553,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F2">
         <v>83</v>
@@ -3512,7 +3607,7 @@
     <row r="8" ht="15.2" spans="1:6">
       <c r="B8" s="10"/>
       <c r="C8" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -3584,7 +3679,7 @@
     <row r="16" ht="15.2" spans="1:6">
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D16" s="11">
         <v>1</v>
@@ -3593,7 +3688,7 @@
     <row r="17" ht="15.2" spans="2:4">
       <c r="B17" s="10"/>
       <c r="C17" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -3602,7 +3697,7 @@
     <row r="18" ht="15.2" spans="2:4">
       <c r="B18" s="10"/>
       <c r="C18" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -3638,7 +3733,7 @@
     <row r="22" ht="15.2" spans="2:4">
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D22" s="11">
         <v>1</v>
@@ -3710,7 +3805,7 @@
     <row r="30" ht="15.2" spans="2:4">
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="11">
         <v>1</v>
@@ -3719,7 +3814,7 @@
     <row r="31" ht="16" spans="2:4">
       <c r="B31" s="10"/>
       <c r="C31" s="13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -3786,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3984,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -4008,7 +4103,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="1"/>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D5" s="6">
         <v>1</v>
@@ -4017,7 +4112,7 @@
     <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6">
         <v>1</v>
@@ -4170,7 +4265,7 @@
     <row r="23" ht="17.6" spans="2:4">
       <c r="B23" s="1"/>
       <c r="C23" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D23" s="6">
         <v>1</v>
@@ -4179,7 +4274,7 @@
     <row r="24" spans="2:4">
       <c r="B24" s="1"/>
       <c r="C24" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" s="6">
         <v>1</v>
@@ -4224,7 +4319,7 @@
     <row r="29" spans="2:4">
       <c r="B29" s="1"/>
       <c r="C29" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D29" s="6">
         <v>1</v>
@@ -4233,7 +4328,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="1"/>
       <c r="C30" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D30" s="6">
         <v>1</v>
@@ -4242,7 +4337,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="1"/>
       <c r="C31" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D31" s="6">
         <v>1</v>
@@ -4260,7 +4355,7 @@
     <row r="33" ht="17.6" spans="2:4">
       <c r="B33" s="1"/>
       <c r="C33" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D33" s="6">
         <v>1</v>
@@ -4350,7 +4445,7 @@
     <row r="43" ht="17.6" spans="2:4">
       <c r="B43" s="1"/>
       <c r="C43" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D43" s="6">
         <v>1</v>
@@ -4359,7 +4454,7 @@
     <row r="44" ht="17.6" spans="2:4">
       <c r="B44" s="1"/>
       <c r="C44" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D44" s="6">
         <v>1</v>
@@ -4368,7 +4463,7 @@
     <row r="45" ht="17.6" spans="2:4">
       <c r="B45" s="5"/>
       <c r="C45" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D45" s="9">
         <v>1</v>
@@ -4604,7 +4699,7 @@
     <row r="71" ht="17.6" spans="2:4">
       <c r="B71" s="1"/>
       <c r="C71" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D71" s="6">
         <v>1</v>
@@ -4631,7 +4726,7 @@
     <row r="74" ht="17.6" spans="2:4">
       <c r="B74" s="1"/>
       <c r="C74" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D74" s="6">
         <v>5</v>
@@ -4658,7 +4753,7 @@
     <row r="77" ht="17.6" spans="2:4">
       <c r="B77" s="1"/>
       <c r="C77" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D77" s="6">
         <v>1</v>
@@ -4694,7 +4789,7 @@
     <row r="81" ht="17.6" spans="2:4">
       <c r="B81" s="1"/>
       <c r="C81" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D81" s="6">
         <v>1</v>
@@ -4703,7 +4798,7 @@
     <row r="82" ht="17.6" spans="2:4">
       <c r="B82" s="1"/>
       <c r="C82" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D82" s="6">
         <v>2</v>
@@ -4739,7 +4834,7 @@
     <row r="86" ht="17.6" spans="2:4">
       <c r="B86" s="1"/>
       <c r="C86" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D86" s="6">
         <v>1</v>
@@ -4748,7 +4843,7 @@
     <row r="87" ht="17.6" spans="2:4">
       <c r="B87" s="1"/>
       <c r="C87" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D87" s="6">
         <v>1</v>
@@ -4822,7 +4917,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -4856,14 +4951,14 @@
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D7" s="3"/>
     </row>
     <row r="8" ht="17.6" spans="1:6">
       <c r="B8" s="4"/>
       <c r="C8" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -4968,7 +5063,7 @@
         <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F3">
         <v>135</v>
@@ -4986,7 +5081,7 @@
     <row r="5" ht="17.6" spans="1:6">
       <c r="B5" s="4"/>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5" s="3">
         <v>4</v>
@@ -5103,7 +5198,7 @@
     <row r="18" ht="17.6" spans="2:4">
       <c r="B18" s="4"/>
       <c r="C18" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
@@ -5121,7 +5216,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -5130,7 +5225,7 @@
     <row r="21" ht="17.6" spans="2:4">
       <c r="B21" s="4"/>
       <c r="C21" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D21" s="3">
         <v>1</v>
@@ -5211,7 +5306,7 @@
     <row r="30" ht="17.6" spans="2:4">
       <c r="B30" s="4"/>
       <c r="C30" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -5220,7 +5315,7 @@
     <row r="31" ht="17.6" spans="2:4">
       <c r="B31" s="4"/>
       <c r="C31" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
@@ -5229,7 +5324,7 @@
     <row r="32" ht="17.6" spans="2:4">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D32" s="3">
         <v>1</v>
@@ -5297,7 +5392,7 @@
     <row r="39" ht="17.6" spans="2:6">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -5324,7 +5419,7 @@
     <row r="42" ht="17.6" spans="2:6">
       <c r="B42" s="4"/>
       <c r="C42" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D42" s="3">
         <v>1</v>
@@ -5405,7 +5500,7 @@
     <row r="51" ht="17.6" spans="2:4">
       <c r="B51" s="4"/>
       <c r="C51" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="3">
         <v>1</v>
@@ -5513,7 +5608,7 @@
     <row r="63" ht="17.6" spans="2:4">
       <c r="B63" s="4"/>
       <c r="C63" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="3">
         <v>2</v>
@@ -5522,7 +5617,7 @@
     <row r="64" ht="17.6" spans="2:4">
       <c r="B64" s="4"/>
       <c r="C64" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64" s="3">
         <v>1</v>
@@ -5585,7 +5680,7 @@
     <row r="71" ht="17.6" spans="2:4">
       <c r="B71" s="4"/>
       <c r="C71" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D71" s="3">
         <v>3</v>
@@ -5652,7 +5747,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -5679,14 +5774,14 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="3"/>
     </row>
     <row r="7" ht="17.6" spans="1:6">
       <c r="B7" s="4"/>
       <c r="C7" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -5707,14 +5802,14 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D10" s="3"/>
     </row>
     <row r="11" ht="17.6" spans="1:6">
       <c r="B11" s="4"/>
       <c r="C11" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -5791,14 +5886,14 @@
     <row r="22" ht="17.6" spans="2:4">
       <c r="B22" s="4"/>
       <c r="C22" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D22" s="3"/>
     </row>
     <row r="23" ht="17.6" spans="2:4">
       <c r="B23" s="4"/>
       <c r="C23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D23" s="3"/>
     </row>
@@ -5819,7 +5914,7 @@
     <row r="26" ht="17.6" spans="2:4">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -5840,7 +5935,7 @@
     <row r="29" ht="17.6" spans="2:4">
       <c r="B29" s="4"/>
       <c r="C29" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D29" s="3"/>
     </row>
@@ -5918,17 +6013,17 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
       <c r="B3" s="4"/>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -5949,7 +6044,7 @@
     <row r="6" ht="17.6" spans="1:6">
       <c r="B6" s="4"/>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -5977,7 +6072,7 @@
     <row r="10" ht="17.6" spans="1:6">
       <c r="B10" s="4"/>
       <c r="C10" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -6005,7 +6100,7 @@
     <row r="14" ht="17.6" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6062,11 +6157,11 @@
         <v>2025</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -6076,7 +6171,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" ht="17.6" spans="1:6">
@@ -6138,7 +6233,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -6261,7 +6356,7 @@
     <row r="9" ht="17.6" spans="1:6">
       <c r="B9" s="4"/>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
@@ -6306,7 +6401,7 @@
     <row r="14" spans="1:6">
       <c r="B14" s="4"/>
       <c r="C14" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
@@ -6333,7 +6428,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -6351,7 +6446,7 @@
     <row r="19" ht="17.6" spans="2:4">
       <c r="B19" s="4"/>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D19" s="3">
         <v>2</v>
@@ -6360,7 +6455,7 @@
     <row r="20" ht="17.6" spans="2:4">
       <c r="B20" s="4"/>
       <c r="C20" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D20" s="3">
         <v>1</v>
@@ -6405,7 +6500,7 @@
     <row r="25" ht="17.6" spans="2:4">
       <c r="B25" s="4"/>
       <c r="C25" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
@@ -6486,7 +6581,7 @@
     <row r="34" ht="17.6" spans="2:4">
       <c r="B34" s="4"/>
       <c r="C34" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D34" s="3">
         <v>1</v>
@@ -6495,7 +6590,7 @@
     <row r="35" ht="17.6" spans="2:4">
       <c r="B35" s="4"/>
       <c r="C35" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D35" s="3">
         <v>1</v>
@@ -7124,7 +7219,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7211,7 +7306,7 @@
     <row r="12" ht="17.6" spans="1:6">
       <c r="B12" s="4"/>
       <c r="C12" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
@@ -7256,7 +7351,7 @@
     <row r="17" ht="17.6" spans="2:4">
       <c r="B17" s="4"/>
       <c r="C17" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D17" s="3">
         <v>1</v>
@@ -7445,7 +7540,7 @@
     <row r="38" ht="17.6" spans="2:4">
       <c r="B38" s="4"/>
       <c r="C38" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3">
         <v>1</v>
@@ -7454,7 +7549,7 @@
     <row r="39" ht="17.6" spans="2:4">
       <c r="B39" s="4"/>
       <c r="C39" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D39" s="3">
         <v>1</v>
@@ -7463,7 +7558,7 @@
     <row r="40" ht="17.6" spans="2:4">
       <c r="B40" s="4"/>
       <c r="C40" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D40" s="3">
         <v>1</v>
@@ -7472,7 +7567,7 @@
     <row r="41" ht="17.6" spans="2:4">
       <c r="B41" s="4"/>
       <c r="C41" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D41" s="3">
         <v>1</v>
@@ -7545,7 +7640,7 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" ht="17.6" spans="1:6">
@@ -7558,7 +7653,7 @@
     <row r="4" ht="17.6" spans="1:6">
       <c r="B4" s="4"/>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="3"/>
     </row>
